--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_1_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_1_sawtooth_10_.xlsx
@@ -577,65 +577,65 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003419388030990511</v>
+        <v>0.004732036689895636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007453706879543349</v>
+        <v>0.01031643294823183</v>
       </c>
       <c r="I2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.548895628862564</v>
+        <v>5.046707586018868</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.259541566821774, 9.838249690903353]</t>
+          <t>[1.3410462271884764, 8.752368944849259]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01160122492188487</v>
+        <v>0.007954304748214902</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01160122492188487</v>
+        <v>0.007954304748214902</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.245316006828387</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.188737224122619, -0.3018947895341544]</t>
+          <t>[-2.3145267197618495, -0.42768428517338597]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0100446078310541</v>
+        <v>0.004693095350625009</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0200892156621082</v>
+        <v>0.004693095350625009</v>
       </c>
       <c r="S2" t="n">
-        <v>9.988013890802666</v>
+        <v>10.31570430230792</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.700582989332055, 12.275444792273277]</t>
+          <t>[8.178006853028524, 12.453401751587318]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.36036036036036</v>
+        <v>4.800800800800801</v>
       </c>
       <c r="X2" t="n">
-        <v>1.057057057057057</v>
+        <v>1.497497497497498</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.663663663663663</v>
+        <v>8.104104104104103</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.51000000000024</v>
+        <v>23.22000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.121603698448162e-06</v>
+        <v>4.029251813308932e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>5.623927306547851e-05</v>
+        <v>5.968530519634601e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.584190077376347</v>
+        <v>6.137480332485705</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.660943359614672, 8.507436795138021]</t>
+          <t>[3.2547617308354866, 9.020198934135923]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0002061439373048923</v>
+        <v>3.71401079894973e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0004122878746097847</v>
+        <v>7.428021597899459e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6163685286322318</v>
+        <v>-1.056631763369539</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, -0.08805264694746207]</t>
+          <t>[-1.54721079636254, -0.5660527303765388]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.02237988394610912</v>
+        <v>3.030341751264487e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02237988394610912</v>
+        <v>6.060683502528974e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>10.37198863271793</v>
+        <v>10.24227839968147</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.832254867469805, 11.911722397966061]</t>
+          <t>[8.692301469126829, 11.79225533023612]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.306286286286308</v>
+        <v>3.904864864864894</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3294694694694729</v>
+        <v>2.091891891891906</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.283103103103144</v>
+        <v>5.717837837837882</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_1_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_1_sawtooth_10_.xlsx
@@ -577,65 +577,65 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004732036689895636</v>
+        <v>0.002183974907922881</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01031643294823183</v>
+        <v>0.005881222423970139</v>
       </c>
       <c r="I2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.046707586018868</v>
+        <v>5.815747346111127</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.3410462271884764, 8.752368944849259]</t>
+          <t>[1.6658699329097146, 9.96562475931254]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.007954304748214902</v>
+        <v>0.006351336070986813</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007954304748214902</v>
+        <v>0.006351336070986813</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.371105502467618</v>
+        <v>-1.358526552903695</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.3145267197618495, -0.42768428517338597]</t>
+          <t>[-2.2013161736865428, -0.5157369321208467]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.004693095350625009</v>
+        <v>0.001772387427349864</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004693095350625009</v>
+        <v>0.001772387427349864</v>
       </c>
       <c r="S2" t="n">
-        <v>10.31570430230792</v>
+        <v>10.77186645627398</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.178006853028524, 12.453401751587318]</t>
+          <t>[8.474552290141684, 13.069180622406282]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>4.800800800800801</v>
+        <v>4.756756756756758</v>
       </c>
       <c r="X2" t="n">
-        <v>1.497497497497498</v>
+        <v>1.805805805805805</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.104104104104103</v>
+        <v>7.70770770770771</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.22000000000019</v>
+        <v>23.18000000000018</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.029251813308932e-07</v>
+        <v>2.183552733903138e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>5.968530519634601e-06</v>
+        <v>0.000292108124929826</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.137480332485705</v>
+        <v>5.267420187306566</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.2547617308354866, 9.020198934135923]</t>
+          <t>[2.2980769368985055, 8.236763437714627]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.71401079894973e-05</v>
+        <v>0.0005561271654517252</v>
       </c>
       <c r="N3" t="n">
-        <v>7.428021597899459e-05</v>
+        <v>0.00111225433090345</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.056631763369539</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.54721079636254, -0.5660527303765388]</t>
+          <t>[-1.6730002920017721, -0.5157369321208467]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.030341751264487e-05</v>
+        <v>0.000237492285565688</v>
       </c>
       <c r="R3" t="n">
-        <v>6.060683502528974e-05</v>
+        <v>0.000474984571131376</v>
       </c>
       <c r="S3" t="n">
-        <v>10.24227839968147</v>
+        <v>10.03689497518079</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.692301469126829, 11.79225533023612]</t>
+          <t>[8.466507819136156, 11.60728213122543]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.904864864864894</v>
+        <v>4.03735735735739</v>
       </c>
       <c r="X3" t="n">
-        <v>2.091891891891906</v>
+        <v>1.902662662662677</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.717837837837882</v>
+        <v>6.172052052052103</v>
       </c>
     </row>
   </sheetData>
